--- a/7th week/SOMEIP_TestSheet_211119_V01_검토의견추가_수정.xlsx
+++ b/7th week/SOMEIP_TestSheet_211119_V01_검토의견추가_수정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5B486E-3992-48E6-88CA-BB44F295DE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7EB4E4-5EF6-456E-BAB0-55B727BB5C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Summary" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="973">
   <si>
     <t>STD|EXT|TOTAL</t>
   </si>
@@ -3167,6 +3167,28 @@
   <si>
     <t>clientServiceActivate, provideConfigurationOption</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestEventUINT8</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestEventUINT8Reliable</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestEventUINT8Multicast</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestFieldUINT8</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestFieldUTF8DynamicReliable</t>
   </si>
 </sst>
 </file>
@@ -5532,8 +5554,8 @@
   <dimension ref="A1:AB1018"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5551,8 +5573,8 @@
     <col min="12" max="15" width="35.6640625" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="167.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.88671875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="17.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="24.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.44140625" style="2" customWidth="1"/>
     <col min="22" max="22" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="28" width="8.6640625" style="2" customWidth="1"/>
@@ -5702,7 +5724,12 @@
       <c r="R3" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="T3" s="15"/>
+      <c r="S3" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
@@ -5753,8 +5780,12 @@
       <c r="R4" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="S4" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
@@ -5805,8 +5836,12 @@
       <c r="R5" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="S5" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
@@ -5857,8 +5892,12 @@
       <c r="R6" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
+      <c r="S6" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
@@ -5909,8 +5948,12 @@
       <c r="R7" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
+      <c r="S7" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
@@ -5961,8 +6004,12 @@
       <c r="R8" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="S8" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
@@ -6013,8 +6060,12 @@
       <c r="R9" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
+      <c r="S9" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
@@ -6065,8 +6116,12 @@
       <c r="R10" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
+      <c r="S10" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
@@ -6117,8 +6172,12 @@
       <c r="R11" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
+      <c r="S11" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
@@ -6169,8 +6228,12 @@
       <c r="R12" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
+      <c r="S12" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -6267,8 +6330,12 @@
       <c r="R14" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
+      <c r="S14" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -6411,8 +6478,12 @@
       <c r="R17" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
+      <c r="S17" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
@@ -6463,8 +6534,12 @@
       <c r="R18" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
+      <c r="S18" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
@@ -6515,8 +6590,12 @@
       <c r="R19" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
+      <c r="S19" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
@@ -6567,8 +6646,12 @@
       <c r="R20" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
+      <c r="S20" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
@@ -6619,8 +6702,12 @@
       <c r="R21" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
+      <c r="S21" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
@@ -6671,8 +6758,12 @@
       <c r="R22" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
+      <c r="S22" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
@@ -6723,8 +6814,12 @@
       <c r="R23" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
+      <c r="S23" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
@@ -6775,8 +6870,12 @@
       <c r="R24" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
+      <c r="S24" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
@@ -6827,8 +6926,12 @@
       <c r="R25" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
+      <c r="S25" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
@@ -6879,8 +6982,12 @@
       <c r="R26" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
+      <c r="S26" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
@@ -6931,8 +7038,12 @@
       <c r="R27" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
+      <c r="S27" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
@@ -6983,8 +7094,12 @@
       <c r="R28" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
+      <c r="S28" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
@@ -7035,8 +7150,12 @@
       <c r="R29" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
+      <c r="S29" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -7087,8 +7206,12 @@
       <c r="R30" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
+      <c r="S30" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -7139,8 +7262,12 @@
       <c r="R31" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
+      <c r="S31" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
@@ -7191,8 +7318,12 @@
       <c r="R32" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
+      <c r="S32" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
@@ -7243,8 +7374,12 @@
       <c r="R33" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
+      <c r="S33" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
@@ -8031,8 +8166,12 @@
       <c r="R50" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
+      <c r="S50" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U50" s="15"/>
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
@@ -8083,8 +8222,12 @@
       <c r="R51" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
+      <c r="S51" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U51" s="15"/>
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
@@ -8135,8 +8278,12 @@
       <c r="R52" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
+      <c r="S52" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U52" s="15"/>
       <c r="V52" s="15"/>
       <c r="W52" s="15"/>
@@ -8325,8 +8472,12 @@
       <c r="R56" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
+      <c r="S56" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U56" s="15"/>
       <c r="V56" s="15"/>
       <c r="W56" s="15"/>
@@ -8377,8 +8528,12 @@
       <c r="R57" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
+      <c r="S57" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U57" s="15"/>
       <c r="V57" s="15"/>
       <c r="W57" s="15"/>
@@ -8935,8 +9090,12 @@
       <c r="R69" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
+      <c r="S69" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U69" s="15"/>
       <c r="V69" s="15"/>
       <c r="W69" s="15"/>
@@ -8987,8 +9146,12 @@
       <c r="R70" s="15" t="s">
         <v>960</v>
       </c>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
+      <c r="S70" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U70" s="15"/>
       <c r="V70" s="15"/>
       <c r="W70" s="15"/>
@@ -9039,8 +9202,12 @@
       <c r="R71" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
+      <c r="S71" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U71" s="15"/>
       <c r="V71" s="15"/>
       <c r="W71" s="15"/>
@@ -9091,8 +9258,12 @@
       <c r="R72" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
+      <c r="S72" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U72" s="15"/>
       <c r="V72" s="15"/>
       <c r="W72" s="15"/>
@@ -9143,8 +9314,12 @@
       <c r="R73" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S73" s="15"/>
-      <c r="T73" s="15"/>
+      <c r="S73" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U73" s="15"/>
       <c r="V73" s="15"/>
       <c r="W73" s="15"/>
@@ -9195,8 +9370,12 @@
       <c r="R74" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
+      <c r="S74" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U74" s="15"/>
       <c r="V74" s="15"/>
       <c r="W74" s="15"/>
@@ -9247,8 +9426,12 @@
       <c r="R75" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
+      <c r="S75" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U75" s="15"/>
       <c r="V75" s="15"/>
       <c r="W75" s="15"/>
@@ -9299,8 +9482,12 @@
       <c r="R76" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S76" s="15"/>
-      <c r="T76" s="15"/>
+      <c r="S76" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U76" s="15"/>
       <c r="V76" s="15"/>
       <c r="W76" s="15"/>
@@ -9351,8 +9538,12 @@
       <c r="R77" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S77" s="15"/>
-      <c r="T77" s="15"/>
+      <c r="S77" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U77" s="15"/>
       <c r="V77" s="15"/>
       <c r="W77" s="15"/>
@@ -9403,8 +9594,12 @@
       <c r="R78" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
+      <c r="S78" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U78" s="15"/>
       <c r="V78" s="15"/>
       <c r="W78" s="15"/>
@@ -9455,8 +9650,12 @@
       <c r="R79" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S79" s="15"/>
-      <c r="T79" s="15"/>
+      <c r="S79" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U79" s="15"/>
       <c r="V79" s="15"/>
       <c r="W79" s="15"/>
@@ -9507,8 +9706,12 @@
       <c r="R80" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S80" s="15"/>
-      <c r="T80" s="15"/>
+      <c r="S80" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U80" s="15"/>
       <c r="V80" s="15"/>
       <c r="W80" s="15"/>
@@ -9559,8 +9762,12 @@
       <c r="R81" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S81" s="15"/>
-      <c r="T81" s="15"/>
+      <c r="S81" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U81" s="15"/>
       <c r="V81" s="15"/>
       <c r="W81" s="15"/>
@@ -9611,8 +9818,12 @@
       <c r="R82" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S82" s="15"/>
-      <c r="T82" s="15"/>
+      <c r="S82" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U82" s="15"/>
       <c r="V82" s="15"/>
       <c r="W82" s="15"/>
@@ -9663,8 +9874,12 @@
       <c r="R83" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S83" s="15"/>
-      <c r="T83" s="15"/>
+      <c r="S83" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U83" s="15"/>
       <c r="V83" s="15"/>
       <c r="W83" s="15"/>
@@ -17765,8 +17980,12 @@
       <c r="R259" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="S259" s="15"/>
-      <c r="T259" s="15"/>
+      <c r="S259" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T259" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U259" s="15"/>
       <c r="V259" s="15"/>
       <c r="W259" s="15"/>
@@ -17817,8 +18036,12 @@
       <c r="R260" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="S260" s="15"/>
-      <c r="T260" s="15"/>
+      <c r="S260" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T260" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U260" s="15"/>
       <c r="V260" s="15"/>
       <c r="W260" s="15"/>
@@ -17869,8 +18092,12 @@
       <c r="R261" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="S261" s="15"/>
-      <c r="T261" s="15"/>
+      <c r="S261" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T261" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U261" s="15"/>
       <c r="V261" s="15"/>
       <c r="W261" s="15"/>
@@ -17921,8 +18148,12 @@
       <c r="R262" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="S262" s="15"/>
-      <c r="T262" s="15"/>
+      <c r="S262" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T262" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U262" s="15"/>
       <c r="V262" s="15"/>
       <c r="W262" s="15"/>
@@ -17973,8 +18204,12 @@
       <c r="R263" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="S263" s="15"/>
-      <c r="T263" s="15"/>
+      <c r="S263" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T263" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U263" s="15"/>
       <c r="V263" s="15"/>
       <c r="W263" s="15"/>
@@ -18025,8 +18260,12 @@
       <c r="R264" s="15" t="s">
         <v>962</v>
       </c>
-      <c r="S264" s="15"/>
-      <c r="T264" s="15"/>
+      <c r="S264" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T264" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U264" s="15"/>
       <c r="V264" s="15"/>
       <c r="W264" s="15"/>
@@ -18077,8 +18316,12 @@
       <c r="R265" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="S265" s="15"/>
-      <c r="T265" s="15"/>
+      <c r="S265" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T265" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U265" s="15"/>
       <c r="V265" s="15"/>
       <c r="W265" s="15"/>
@@ -18129,8 +18372,12 @@
       <c r="R266" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="S266" s="15"/>
-      <c r="T266" s="15"/>
+      <c r="S266" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T266" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U266" s="15"/>
       <c r="V266" s="15"/>
       <c r="W266" s="15"/>
@@ -18181,8 +18428,12 @@
       <c r="R267" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="S267" s="15"/>
-      <c r="T267" s="15"/>
+      <c r="S267" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T267" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U267" s="15"/>
       <c r="V267" s="15"/>
       <c r="W267" s="15"/>
@@ -18233,8 +18484,12 @@
       <c r="R268" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="S268" s="15"/>
-      <c r="T268" s="15"/>
+      <c r="S268" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T268" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U268" s="15"/>
       <c r="V268" s="15"/>
       <c r="W268" s="15"/>
@@ -18285,8 +18540,12 @@
       <c r="R269" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="S269" s="15"/>
-      <c r="T269" s="15"/>
+      <c r="S269" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T269" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U269" s="15"/>
       <c r="V269" s="15"/>
       <c r="W269" s="15"/>
@@ -18337,8 +18596,12 @@
       <c r="R270" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="S270" s="15"/>
-      <c r="T270" s="15"/>
+      <c r="S270" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T270" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U270" s="15"/>
       <c r="V270" s="15"/>
       <c r="W270" s="15"/>
@@ -18389,8 +18652,12 @@
       <c r="R271" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="S271" s="15"/>
-      <c r="T271" s="15"/>
+      <c r="S271" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T271" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U271" s="15"/>
       <c r="V271" s="15"/>
       <c r="W271" s="15"/>
@@ -18441,8 +18708,12 @@
       <c r="R272" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="S272" s="15"/>
-      <c r="T272" s="15"/>
+      <c r="S272" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T272" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U272" s="15"/>
       <c r="V272" s="15"/>
       <c r="W272" s="15"/>
@@ -18493,8 +18764,12 @@
       <c r="R273" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="S273" s="15"/>
-      <c r="T273" s="15"/>
+      <c r="S273" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T273" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U273" s="15"/>
       <c r="V273" s="15"/>
       <c r="W273" s="15"/>
@@ -18545,8 +18820,12 @@
       <c r="R274" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="S274" s="15"/>
-      <c r="T274" s="15"/>
+      <c r="S274" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T274" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U274" s="15"/>
       <c r="V274" s="15"/>
       <c r="W274" s="15"/>
@@ -18597,8 +18876,12 @@
       <c r="R275" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="S275" s="15"/>
-      <c r="T275" s="15"/>
+      <c r="S275" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T275" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U275" s="15"/>
       <c r="V275" s="15"/>
       <c r="W275" s="15"/>
@@ -18649,8 +18932,12 @@
       <c r="R276" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="S276" s="15"/>
-      <c r="T276" s="15"/>
+      <c r="S276" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T276" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U276" s="15"/>
       <c r="V276" s="15"/>
       <c r="W276" s="15"/>
@@ -18701,8 +18988,12 @@
       <c r="R277" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="S277" s="15"/>
-      <c r="T277" s="15"/>
+      <c r="S277" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T277" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U277" s="15"/>
       <c r="V277" s="15"/>
       <c r="W277" s="15"/>
@@ -18753,8 +19044,12 @@
       <c r="R278" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="S278" s="15"/>
-      <c r="T278" s="15"/>
+      <c r="S278" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T278" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U278" s="15"/>
       <c r="V278" s="15"/>
       <c r="W278" s="15"/>
@@ -18805,8 +19100,12 @@
       <c r="R279" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S279" s="15"/>
-      <c r="T279" s="15"/>
+      <c r="S279" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T279" s="15" t="s">
+        <v>971</v>
+      </c>
       <c r="U279" s="15"/>
       <c r="V279" s="15"/>
       <c r="W279" s="15"/>
@@ -18857,8 +19156,12 @@
       <c r="R280" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S280" s="15"/>
-      <c r="T280" s="15"/>
+      <c r="S280" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T280" s="15" t="s">
+        <v>971</v>
+      </c>
       <c r="U280" s="15"/>
       <c r="V280" s="15"/>
       <c r="W280" s="15"/>
@@ -18909,8 +19212,12 @@
       <c r="R281" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="S281" s="15"/>
-      <c r="T281" s="15"/>
+      <c r="S281" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T281" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U281" s="15"/>
       <c r="V281" s="15"/>
       <c r="W281" s="15"/>
@@ -18961,8 +19268,12 @@
       <c r="R282" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="S282" s="15"/>
-      <c r="T282" s="15"/>
+      <c r="S282" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T282" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U282" s="15"/>
       <c r="V282" s="15"/>
       <c r="W282" s="15"/>
@@ -19013,8 +19324,12 @@
       <c r="R283" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="S283" s="15"/>
-      <c r="T283" s="15"/>
+      <c r="S283" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T283" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U283" s="15"/>
       <c r="V283" s="15"/>
       <c r="W283" s="15"/>
@@ -19939,8 +20254,12 @@
       <c r="R303" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S303" s="15"/>
-      <c r="T303" s="15"/>
+      <c r="S303" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T303" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U303" s="15"/>
       <c r="V303" s="15"/>
       <c r="W303" s="15"/>
@@ -19991,8 +20310,12 @@
       <c r="R304" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S304" s="15"/>
-      <c r="T304" s="15"/>
+      <c r="S304" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T304" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U304" s="15"/>
       <c r="V304" s="15"/>
       <c r="W304" s="15"/>
@@ -20043,8 +20366,12 @@
       <c r="R305" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S305" s="15"/>
-      <c r="T305" s="15"/>
+      <c r="S305" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T305" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U305" s="15"/>
       <c r="V305" s="15"/>
       <c r="W305" s="15"/>
@@ -20095,8 +20422,12 @@
       <c r="R306" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S306" s="15"/>
-      <c r="T306" s="15"/>
+      <c r="S306" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T306" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U306" s="15"/>
       <c r="V306" s="15"/>
       <c r="W306" s="15"/>
@@ -20147,8 +20478,12 @@
       <c r="R307" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S307" s="15"/>
-      <c r="T307" s="15"/>
+      <c r="S307" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T307" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U307" s="15"/>
       <c r="V307" s="15"/>
       <c r="W307" s="15"/>
@@ -20199,8 +20534,12 @@
       <c r="R308" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S308" s="15"/>
-      <c r="T308" s="15"/>
+      <c r="S308" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T308" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U308" s="15"/>
       <c r="V308" s="15"/>
       <c r="W308" s="15"/>
@@ -20251,8 +20590,12 @@
       <c r="R309" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S309" s="15"/>
-      <c r="T309" s="15"/>
+      <c r="S309" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T309" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U309" s="15"/>
       <c r="V309" s="15"/>
       <c r="W309" s="15"/>
@@ -20303,8 +20646,12 @@
       <c r="R310" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S310" s="15"/>
-      <c r="T310" s="15"/>
+      <c r="S310" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T310" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U310" s="15"/>
       <c r="V310" s="15"/>
       <c r="W310" s="15"/>
@@ -20355,8 +20702,12 @@
       <c r="R311" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S311" s="15"/>
-      <c r="T311" s="15"/>
+      <c r="S311" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T311" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U311" s="15"/>
       <c r="V311" s="15"/>
       <c r="W311" s="15"/>
@@ -20407,8 +20758,12 @@
       <c r="R312" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S312" s="15"/>
-      <c r="T312" s="15"/>
+      <c r="S312" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T312" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U312" s="15"/>
       <c r="V312" s="15"/>
       <c r="W312" s="15"/>
@@ -20459,8 +20814,12 @@
       <c r="R313" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S313" s="15"/>
-      <c r="T313" s="15"/>
+      <c r="S313" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T313" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U313" s="15"/>
       <c r="V313" s="15"/>
       <c r="W313" s="15"/>
@@ -20511,8 +20870,12 @@
       <c r="R314" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S314" s="15"/>
-      <c r="T314" s="15"/>
+      <c r="S314" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T314" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U314" s="15"/>
       <c r="V314" s="15"/>
       <c r="W314" s="15"/>
@@ -20563,8 +20926,12 @@
       <c r="R315" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S315" s="15"/>
-      <c r="T315" s="15"/>
+      <c r="S315" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T315" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U315" s="15"/>
       <c r="V315" s="15"/>
       <c r="W315" s="15"/>
@@ -20615,8 +20982,12 @@
       <c r="R316" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S316" s="15"/>
-      <c r="T316" s="15"/>
+      <c r="S316" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T316" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U316" s="15"/>
       <c r="V316" s="15"/>
       <c r="W316" s="15"/>
@@ -20667,8 +21038,12 @@
       <c r="R317" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S317" s="15"/>
-      <c r="T317" s="15"/>
+      <c r="S317" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T317" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U317" s="15"/>
       <c r="V317" s="15"/>
       <c r="W317" s="15"/>
@@ -20719,8 +21094,12 @@
       <c r="R318" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S318" s="15"/>
-      <c r="T318" s="15"/>
+      <c r="S318" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T318" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U318" s="15"/>
       <c r="V318" s="15"/>
       <c r="W318" s="15"/>
@@ -20771,8 +21150,12 @@
       <c r="R319" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S319" s="15"/>
-      <c r="T319" s="15"/>
+      <c r="S319" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T319" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U319" s="15"/>
       <c r="V319" s="15"/>
       <c r="W319" s="15"/>
@@ -20823,8 +21206,12 @@
       <c r="R320" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S320" s="15"/>
-      <c r="T320" s="15"/>
+      <c r="S320" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T320" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U320" s="15"/>
       <c r="V320" s="15"/>
       <c r="W320" s="15"/>
@@ -20875,8 +21262,12 @@
       <c r="R321" s="15" t="s">
         <v>861</v>
       </c>
-      <c r="S321" s="15"/>
-      <c r="T321" s="15"/>
+      <c r="S321" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T321" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U321" s="15"/>
       <c r="V321" s="15"/>
       <c r="W321" s="15"/>
@@ -20927,8 +21318,12 @@
       <c r="R322" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S322" s="15"/>
-      <c r="T322" s="15"/>
+      <c r="S322" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T322" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U322" s="15"/>
       <c r="V322" s="15"/>
       <c r="W322" s="15"/>
@@ -20979,8 +21374,12 @@
       <c r="R323" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S323" s="15"/>
-      <c r="T323" s="15"/>
+      <c r="S323" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T323" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U323" s="15"/>
       <c r="V323" s="15"/>
       <c r="W323" s="15"/>
@@ -21031,8 +21430,12 @@
       <c r="R324" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S324" s="15"/>
-      <c r="T324" s="15"/>
+      <c r="S324" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T324" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U324" s="15"/>
       <c r="V324" s="15"/>
       <c r="W324" s="15"/>
@@ -21083,8 +21486,12 @@
       <c r="R325" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="S325" s="15"/>
-      <c r="T325" s="15"/>
+      <c r="S325" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T325" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U325" s="15"/>
       <c r="V325" s="15"/>
       <c r="W325" s="15"/>
@@ -21135,8 +21542,12 @@
       <c r="R326" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S326" s="15"/>
-      <c r="T326" s="15"/>
+      <c r="S326" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T326" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U326" s="15"/>
       <c r="V326" s="15"/>
       <c r="W326" s="15"/>
@@ -21187,8 +21598,12 @@
       <c r="R327" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S327" s="15"/>
-      <c r="T327" s="15"/>
+      <c r="S327" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T327" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U327" s="15"/>
       <c r="V327" s="15"/>
       <c r="W327" s="15"/>
@@ -21239,8 +21654,12 @@
       <c r="R328" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S328" s="15"/>
-      <c r="T328" s="15"/>
+      <c r="S328" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T328" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U328" s="15"/>
       <c r="V328" s="15"/>
       <c r="W328" s="15"/>
@@ -21291,8 +21710,12 @@
       <c r="R329" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S329" s="15"/>
-      <c r="T329" s="15"/>
+      <c r="S329" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T329" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U329" s="15"/>
       <c r="V329" s="15"/>
       <c r="W329" s="15"/>
@@ -21343,8 +21766,12 @@
       <c r="R330" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S330" s="15"/>
-      <c r="T330" s="15"/>
+      <c r="S330" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T330" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U330" s="15"/>
       <c r="V330" s="15"/>
       <c r="W330" s="15"/>
@@ -21395,8 +21822,12 @@
       <c r="R331" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S331" s="15"/>
-      <c r="T331" s="15"/>
+      <c r="S331" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T331" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U331" s="15"/>
       <c r="V331" s="15"/>
       <c r="W331" s="15"/>
@@ -21447,8 +21878,12 @@
       <c r="R332" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S332" s="15"/>
-      <c r="T332" s="15"/>
+      <c r="S332" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T332" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U332" s="15"/>
       <c r="V332" s="15"/>
       <c r="W332" s="15"/>
@@ -21499,8 +21934,12 @@
       <c r="R333" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S333" s="15"/>
-      <c r="T333" s="15"/>
+      <c r="S333" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T333" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U333" s="15"/>
       <c r="V333" s="15"/>
       <c r="W333" s="15"/>
@@ -21551,8 +21990,12 @@
       <c r="R334" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S334" s="15"/>
-      <c r="T334" s="15"/>
+      <c r="S334" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T334" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U334" s="15"/>
       <c r="V334" s="15"/>
       <c r="W334" s="15"/>
@@ -21603,8 +22046,12 @@
       <c r="R335" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="S335" s="15"/>
-      <c r="T335" s="15"/>
+      <c r="S335" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T335" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U335" s="15"/>
       <c r="V335" s="15"/>
       <c r="W335" s="15"/>
@@ -21655,8 +22102,12 @@
       <c r="R336" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S336" s="15"/>
-      <c r="T336" s="15"/>
+      <c r="S336" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T336" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U336" s="15"/>
       <c r="V336" s="15"/>
       <c r="W336" s="15"/>
@@ -21707,8 +22158,12 @@
       <c r="R337" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="S337" s="15"/>
-      <c r="T337" s="15"/>
+      <c r="S337" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T337" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U337" s="15"/>
       <c r="V337" s="15"/>
       <c r="W337" s="15"/>
@@ -21759,8 +22214,12 @@
       <c r="R338" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S338" s="15"/>
-      <c r="T338" s="15"/>
+      <c r="S338" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T338" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U338" s="15"/>
       <c r="V338" s="15"/>
       <c r="W338" s="15"/>
@@ -21811,8 +22270,12 @@
       <c r="R339" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S339" s="15"/>
-      <c r="T339" s="15"/>
+      <c r="S339" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T339" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U339" s="15"/>
       <c r="V339" s="15"/>
       <c r="W339" s="15"/>
@@ -21863,8 +22326,12 @@
       <c r="R340" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S340" s="15"/>
-      <c r="T340" s="15"/>
+      <c r="S340" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T340" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U340" s="15"/>
       <c r="V340" s="15"/>
       <c r="W340" s="15"/>
@@ -21915,8 +22382,12 @@
       <c r="R341" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S341" s="15"/>
-      <c r="T341" s="15"/>
+      <c r="S341" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T341" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U341" s="15"/>
       <c r="V341" s="15"/>
       <c r="W341" s="15"/>
@@ -21967,8 +22438,12 @@
       <c r="R342" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S342" s="15"/>
-      <c r="T342" s="15"/>
+      <c r="S342" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T342" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U342" s="15"/>
       <c r="V342" s="15"/>
       <c r="W342" s="15"/>
@@ -22019,8 +22494,12 @@
       <c r="R343" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S343" s="15"/>
-      <c r="T343" s="15"/>
+      <c r="S343" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T343" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U343" s="15"/>
       <c r="V343" s="15"/>
       <c r="W343" s="15"/>
@@ -22071,8 +22550,12 @@
       <c r="R344" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S344" s="15"/>
-      <c r="T344" s="15"/>
+      <c r="S344" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T344" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U344" s="15"/>
       <c r="V344" s="15"/>
       <c r="W344" s="15"/>
@@ -22123,8 +22606,12 @@
       <c r="R345" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S345" s="15"/>
-      <c r="T345" s="15"/>
+      <c r="S345" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T345" s="15" t="s">
+        <v>972</v>
+      </c>
       <c r="U345" s="15"/>
       <c r="V345" s="15"/>
       <c r="W345" s="15"/>
@@ -22175,8 +22662,12 @@
       <c r="R346" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S346" s="15"/>
-      <c r="T346" s="15"/>
+      <c r="S346" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T346" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U346" s="15"/>
       <c r="V346" s="15"/>
       <c r="W346" s="15"/>
@@ -22227,8 +22718,12 @@
       <c r="R347" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S347" s="15"/>
-      <c r="T347" s="15"/>
+      <c r="S347" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T347" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U347" s="15"/>
       <c r="V347" s="15"/>
       <c r="W347" s="15"/>
@@ -22279,8 +22774,12 @@
       <c r="R348" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S348" s="15"/>
-      <c r="T348" s="15"/>
+      <c r="S348" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T348" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U348" s="15"/>
       <c r="V348" s="15"/>
       <c r="W348" s="15"/>
@@ -22331,8 +22830,12 @@
       <c r="R349" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S349" s="15"/>
-      <c r="T349" s="15"/>
+      <c r="S349" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T349" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U349" s="15"/>
       <c r="V349" s="15"/>
       <c r="W349" s="15"/>
@@ -22383,8 +22886,12 @@
       <c r="R350" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S350" s="15"/>
-      <c r="T350" s="15"/>
+      <c r="S350" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T350" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U350" s="15"/>
       <c r="V350" s="15"/>
       <c r="W350" s="15"/>
@@ -22435,8 +22942,12 @@
       <c r="R351" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S351" s="15"/>
-      <c r="T351" s="15"/>
+      <c r="S351" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T351" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U351" s="15"/>
       <c r="V351" s="15"/>
       <c r="W351" s="15"/>
@@ -22487,8 +22998,12 @@
       <c r="R352" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S352" s="15"/>
-      <c r="T352" s="15"/>
+      <c r="S352" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T352" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U352" s="15"/>
       <c r="V352" s="15"/>
       <c r="W352" s="15"/>
@@ -22539,8 +23054,12 @@
       <c r="R353" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S353" s="15"/>
-      <c r="T353" s="15"/>
+      <c r="S353" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T353" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U353" s="15"/>
       <c r="V353" s="15"/>
       <c r="W353" s="15"/>
@@ -22591,8 +23110,12 @@
       <c r="R354" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S354" s="15"/>
-      <c r="T354" s="15"/>
+      <c r="S354" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T354" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U354" s="15"/>
       <c r="V354" s="15"/>
       <c r="W354" s="15"/>
@@ -22643,8 +23166,12 @@
       <c r="R355" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S355" s="15"/>
-      <c r="T355" s="15"/>
+      <c r="S355" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T355" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U355" s="15"/>
       <c r="V355" s="15"/>
       <c r="W355" s="15"/>
@@ -22695,8 +23222,12 @@
       <c r="R356" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="S356" s="15"/>
-      <c r="T356" s="15"/>
+      <c r="S356" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T356" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U356" s="15"/>
       <c r="V356" s="15"/>
       <c r="W356" s="15"/>
@@ -22747,8 +23278,12 @@
       <c r="R357" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S357" s="15"/>
-      <c r="T357" s="15"/>
+      <c r="S357" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T357" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U357" s="15"/>
       <c r="V357" s="15"/>
       <c r="W357" s="15"/>
@@ -22799,8 +23334,12 @@
       <c r="R358" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S358" s="15"/>
-      <c r="T358" s="15"/>
+      <c r="S358" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T358" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U358" s="15"/>
       <c r="V358" s="15"/>
       <c r="W358" s="15"/>
@@ -22851,8 +23390,12 @@
       <c r="R359" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S359" s="15"/>
-      <c r="T359" s="15"/>
+      <c r="S359" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T359" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U359" s="15"/>
       <c r="V359" s="15"/>
       <c r="W359" s="15"/>
@@ -22903,8 +23446,12 @@
       <c r="R360" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S360" s="15"/>
-      <c r="T360" s="15"/>
+      <c r="S360" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T360" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U360" s="15"/>
       <c r="V360" s="15"/>
       <c r="W360" s="15"/>
@@ -22955,8 +23502,12 @@
       <c r="R361" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S361" s="15"/>
-      <c r="T361" s="15"/>
+      <c r="S361" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T361" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U361" s="15"/>
       <c r="V361" s="15"/>
       <c r="W361" s="15"/>
@@ -23007,8 +23558,12 @@
       <c r="R362" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S362" s="15"/>
-      <c r="T362" s="15"/>
+      <c r="S362" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T362" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U362" s="15"/>
       <c r="V362" s="15"/>
       <c r="W362" s="15"/>
@@ -23059,8 +23614,12 @@
       <c r="R363" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S363" s="15"/>
-      <c r="T363" s="15"/>
+      <c r="S363" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T363" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U363" s="15"/>
       <c r="V363" s="15"/>
       <c r="W363" s="15"/>
@@ -23111,8 +23670,12 @@
       <c r="R364" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S364" s="15"/>
-      <c r="T364" s="15"/>
+      <c r="S364" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T364" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U364" s="15"/>
       <c r="V364" s="15"/>
       <c r="W364" s="15"/>
@@ -23163,8 +23726,12 @@
       <c r="R365" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S365" s="15"/>
-      <c r="T365" s="15"/>
+      <c r="S365" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T365" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U365" s="15"/>
       <c r="V365" s="15"/>
       <c r="W365" s="15"/>
@@ -23215,8 +23782,12 @@
       <c r="R366" s="15" t="s">
         <v>914</v>
       </c>
-      <c r="S366" s="15"/>
-      <c r="T366" s="15"/>
+      <c r="S366" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="T366" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U366" s="15"/>
       <c r="V366" s="15"/>
       <c r="W366" s="15"/>
@@ -23267,8 +23838,12 @@
       <c r="R367" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="S367" s="15"/>
-      <c r="T367" s="15"/>
+      <c r="S367" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="T367" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U367" s="15"/>
       <c r="V367" s="15"/>
       <c r="W367" s="15"/>
@@ -23319,8 +23894,12 @@
       <c r="R368" s="15" t="s">
         <v>920</v>
       </c>
-      <c r="S368" s="15"/>
-      <c r="T368" s="15"/>
+      <c r="S368" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="T368" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U368" s="15"/>
       <c r="V368" s="15"/>
       <c r="W368" s="15"/>
@@ -23371,8 +23950,12 @@
       <c r="R369" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="S369" s="15"/>
-      <c r="T369" s="15"/>
+      <c r="S369" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T369" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U369" s="15"/>
       <c r="V369" s="15"/>
       <c r="W369" s="15"/>
@@ -23423,8 +24006,12 @@
       <c r="R370" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="S370" s="15"/>
-      <c r="T370" s="15"/>
+      <c r="S370" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="T370" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U370" s="15"/>
       <c r="V370" s="15"/>
       <c r="W370" s="15"/>
@@ -23475,8 +24062,12 @@
       <c r="R371" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S371" s="15"/>
-      <c r="T371" s="15"/>
+      <c r="S371" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T371" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U371" s="15"/>
       <c r="V371" s="15"/>
       <c r="W371" s="15"/>
@@ -23527,8 +24118,12 @@
       <c r="R372" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S372" s="15"/>
-      <c r="T372" s="15"/>
+      <c r="S372" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T372" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U372" s="15"/>
       <c r="V372" s="15"/>
       <c r="W372" s="15"/>
@@ -23579,8 +24174,12 @@
       <c r="R373" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="S373" s="15"/>
-      <c r="T373" s="15"/>
+      <c r="S373" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T373" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U373" s="15"/>
       <c r="V373" s="15"/>
       <c r="W373" s="15"/>
@@ -23631,8 +24230,12 @@
       <c r="R374" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S374" s="15"/>
-      <c r="T374" s="15"/>
+      <c r="S374" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T374" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U374" s="15"/>
       <c r="V374" s="15"/>
       <c r="W374" s="15"/>
@@ -23683,8 +24286,12 @@
       <c r="R375" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="S375" s="15"/>
-      <c r="T375" s="15"/>
+      <c r="S375" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T375" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U375" s="15"/>
       <c r="V375" s="15"/>
       <c r="W375" s="15"/>
@@ -23735,8 +24342,12 @@
       <c r="R376" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S376" s="15"/>
-      <c r="T376" s="15"/>
+      <c r="S376" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T376" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U376" s="15"/>
       <c r="V376" s="15"/>
       <c r="W376" s="15"/>
@@ -23787,8 +24398,12 @@
       <c r="R377" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S377" s="15"/>
-      <c r="T377" s="15"/>
+      <c r="S377" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T377" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U377" s="15"/>
       <c r="V377" s="15"/>
       <c r="W377" s="15"/>
@@ -23839,8 +24454,12 @@
       <c r="R378" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S378" s="15"/>
-      <c r="T378" s="15"/>
+      <c r="S378" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T378" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U378" s="15"/>
       <c r="V378" s="15"/>
       <c r="W378" s="15"/>
@@ -23891,8 +24510,12 @@
       <c r="R379" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S379" s="15"/>
-      <c r="T379" s="15"/>
+      <c r="S379" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T379" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U379" s="15"/>
       <c r="V379" s="15"/>
       <c r="W379" s="15"/>
@@ -23943,8 +24566,12 @@
       <c r="R380" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="S380" s="15"/>
-      <c r="T380" s="15"/>
+      <c r="S380" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T380" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U380" s="15"/>
       <c r="V380" s="15"/>
       <c r="W380" s="15"/>
@@ -23995,8 +24622,12 @@
       <c r="R381" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="S381" s="15"/>
-      <c r="T381" s="15"/>
+      <c r="S381" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T381" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U381" s="15"/>
       <c r="V381" s="15"/>
       <c r="W381" s="15"/>
@@ -24047,8 +24678,12 @@
       <c r="R382" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="S382" s="15"/>
-      <c r="T382" s="15"/>
+      <c r="S382" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T382" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U382" s="15"/>
       <c r="V382" s="15"/>
       <c r="W382" s="15"/>
@@ -24099,8 +24734,12 @@
       <c r="R383" s="15" t="s">
         <v>920</v>
       </c>
-      <c r="S383" s="15"/>
-      <c r="T383" s="15"/>
+      <c r="S383" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T383" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U383" s="15"/>
       <c r="V383" s="15"/>
       <c r="W383" s="15"/>
@@ -24151,8 +24790,12 @@
       <c r="R384" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="S384" s="15"/>
-      <c r="T384" s="15"/>
+      <c r="S384" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T384" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U384" s="15"/>
       <c r="V384" s="15"/>
       <c r="W384" s="15"/>
@@ -24203,8 +24846,12 @@
       <c r="R385" s="15" t="s">
         <v>914</v>
       </c>
-      <c r="S385" s="15"/>
-      <c r="T385" s="15"/>
+      <c r="S385" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T385" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U385" s="15"/>
       <c r="V385" s="15"/>
       <c r="W385" s="15"/>
@@ -24255,8 +24902,12 @@
       <c r="R386" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="S386" s="15"/>
-      <c r="T386" s="15"/>
+      <c r="S386" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T386" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U386" s="15"/>
       <c r="V386" s="15"/>
       <c r="W386" s="15"/>
@@ -24307,8 +24958,12 @@
       <c r="R387" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="S387" s="15"/>
-      <c r="T387" s="15"/>
+      <c r="S387" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T387" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="U387" s="15"/>
       <c r="V387" s="15"/>
       <c r="W387" s="15"/>
